--- a/biology/Zoologie/Echinosigra/Echinosigra.xlsx
+++ b/biology/Zoologie/Echinosigra/Echinosigra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinosigra est un genre d'oursins irréguliers de la famille des Pourtalesiidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des oursins très irréguliers, dont la forme a évolué de la sphère vers une forme très allongée et pourvue d'un rostre, évoquant une bouteille[1]. De plus, cette forme est très évolutive avec l'âge de l'animal, ce qui complique encore plus l'identification[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des oursins très irréguliers, dont la forme a évolué de la sphère vers une forme très allongée et pourvue d'un rostre, évoquant une bouteille. De plus, cette forme est très évolutive avec l'âge de l'animal, ce qui complique encore plus l'identification. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat et mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins abyssaux, inféodés au plus profond des abysses.
 Ils semblent se nourrir à la manière des holothuries, en ingérant la pellicule superficielle du sédiment qui contient une fraction de matière nutritive. 
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (9 décembre 2015)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 décembre 2015) :
 sous-genre Echinosigra (Echinogutta) Mironov, 1997
 Echinosigra amphora Mironov, 1974
 Echinosigra antarctica Mironov, 1974
